--- a/Reports/11_Final_report_02/experiment_results.xlsx
+++ b/Reports/11_Final_report_02/experiment_results.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaspergracner/Documents/FERI_MAG/Poletni_semester/Povezljivi_sistemi_in_inteligentne_storitve/psis2017/Reports/11_Final_report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luka/Documents/GitRepos/psis2017.git/Reports/11_Final_report_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35920" yWindow="-4300" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19320" windowHeight="12800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="neural_networks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Metoda</t>
   </si>
@@ -102,6 +103,114 @@
   </si>
   <si>
     <t>0.7816</t>
+  </si>
+  <si>
+    <t>metoda</t>
+  </si>
+  <si>
+    <t>adam-identity</t>
+  </si>
+  <si>
+    <t>adam-logistic</t>
+  </si>
+  <si>
+    <t>lbfgs-logistic</t>
+  </si>
+  <si>
+    <t>adam-tanh</t>
+  </si>
+  <si>
+    <t>lbfgs-tanh</t>
+  </si>
+  <si>
+    <t>adam-relu</t>
+  </si>
+  <si>
+    <t>lbfgs-relu</t>
+  </si>
+  <si>
+    <t>lbfgs-identity</t>
+  </si>
+  <si>
+    <t>sgd-identity</t>
+  </si>
+  <si>
+    <t>sgd-tanh</t>
+  </si>
+  <si>
+    <t>sgd-relu</t>
+  </si>
+  <si>
+    <t>sgd-logistic</t>
+  </si>
+  <si>
+    <t>0.64797507788161979</t>
+  </si>
+  <si>
+    <t>0.54800000000000004</t>
+  </si>
+  <si>
+    <t>0.77551020408163263</t>
+  </si>
+  <si>
+    <t>0.69795918367346943</t>
+  </si>
+  <si>
+    <t>0.72332015810276684</t>
+  </si>
+  <si>
+    <t>0.71017274472168901</t>
+  </si>
+  <si>
+    <t>0.63752276867030966</t>
+  </si>
+  <si>
+    <t>0.61056105610561062</t>
+  </si>
+  <si>
+    <t>0.79918032786885251</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.6851485148514852</t>
+  </si>
+  <si>
+    <t>0.67021276595744683</t>
+  </si>
+  <si>
+    <t>0.78000000000000003</t>
+  </si>
+  <si>
+    <t>0.70399999999999996</t>
+  </si>
+  <si>
+    <t>0.71999999999999997</t>
+  </si>
+  <si>
+    <t>0.69799999999999995</t>
+  </si>
+  <si>
+    <t>0.60199999999999998</t>
+  </si>
+  <si>
+    <t>0.52800000000000002</t>
+  </si>
+  <si>
+    <t>0.80400000000000005</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.68200000000000005</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -418,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,4 +717,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/11_Final_report_02/experiment_results.xlsx
+++ b/Reports/11_Final_report_02/experiment_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -308,8 +308,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="00.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -377,8 +378,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,15 +407,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A1:C6 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.0407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.062962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,153 +613,154 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="A1:C6 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -779,17 +785,17 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="A1:C6 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7259259259259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,14 +936,14 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
